--- a/processing/final/benchmark_2mw/benchmark_2mw.xlsx
+++ b/processing/final/benchmark_2mw/benchmark_2mw.xlsx
@@ -8894,8 +8894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R30" workbookViewId="0">
-      <selection activeCell="AE59" sqref="AE59"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="Q84" sqref="Q84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
